--- a/biology/Zoologie/Archaeoroncus_tenuis/Archaeoroncus_tenuis.xlsx
+++ b/biology/Zoologie/Archaeoroncus_tenuis/Archaeoroncus_tenuis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Archaeoroncus tenuis est une espèce de pseudoscorpions de la famille des Neobisiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Croatie[1]. Elle se rencontre sur Krk vers Malinska[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Croatie. Elle se rencontre sur Krk vers Malinska.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par  en mesure 2,19 mm et la femelle 2,49 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par  en mesure 2,19 mm et la femelle 2,49 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Roncus lubricus tenuis par Hadži en 1933. Elle est élevée au rang d'espèce par Ćurčić, Dimitrijević et Karamata en 1992[3]. Elle est placée dans le genre Archaeoroncus par Ćurčić, Dimitrijević, Rađa, Makarov et Ilić en 2012[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Roncus lubricus tenuis par Hadži en 1933. Elle est élevée au rang d'espèce par Ćurčić, Dimitrijević et Karamata en 1992. Elle est placée dans le genre Archaeoroncus par Ćurčić, Dimitrijević, Rađa, Makarov et Ilić en 2012.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hadži, 1933 : Prinos poznavanju pseudoskorpijske faune Primorja. Prirodoslovna Istraživanja Kraljevine Jugoslavije, vol. 18, p. 125-192.</t>
         </is>
